--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/59_Muğla_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/59_Muğla_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F036AD0-DA38-4491-9E82-23A9E07ED703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C23B293E-272D-405D-A250-F6D09460ACD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="672" xr2:uid="{71BCAD6D-D494-4DB7-B8C4-49730D98A93F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{67244538-B12E-4D1C-8BF7-FC8EC8A906DD}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -1018,13 +1018,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{3D3E9CE3-2018-426B-BA9B-89880A2DFC23}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F1CC81B5-3BAB-4B65-875F-ED35E8331881}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{F2D48FF4-00AC-4695-8BC8-86DF37024885}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{B49FCEAB-8DA8-4CCF-89D3-AFABF80AE51E}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{0080C40C-28CF-489E-8A18-1EEC8DD7638B}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{DE40A0E6-CA71-45DB-B143-A2A862549733}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{265FA5AC-A0E2-4593-A735-D15187FF27C2}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{AEF16251-8AC9-4CBB-B823-30CB1D90388E}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A7469138-148E-4139-B7DC-0043ABDAF177}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{589A06E6-C86C-4A64-A63F-39BB66857514}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{4CCF2FF7-436D-4F72-9381-030079D54A0F}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{4F91E74C-D69B-41AB-841F-804BE5CCD633}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{370702F4-5B5F-40E1-B0DA-42C9F92A4777}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{CD99DCFB-34A0-485B-B6E5-BCB0DA22DB6E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1394,7 +1394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85AC5CF-CBD1-42B3-8DB2-592144F5010A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D42A53-2F4A-4A2E-84E2-B406675B0811}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2716,17 +2716,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B0D3B54C-135A-4C9D-90C4-3A769126F5CD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7443A28E-F2D6-4168-80E6-763EDA9828F3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D030F12C-7A72-4477-B4E9-07F6CB5717F4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C8F00799-9795-4808-AED3-4429F9001760}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5D1F6055-EE42-4A32-9BB5-B2501A1816EF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{39582523-30D1-4C46-9677-23876CE1B969}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2C4475D0-65EF-43B0-B088-4E7FC6641963}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{655ED3A0-D73F-4813-9F11-489255E2D5FE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0AD335BE-E34F-461D-AF33-F42BD518A07A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{A79A6792-458D-408F-BCD1-BA32F562D076}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{690376E3-CBAA-4ECF-A7AD-704A3708B53F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5D44AFA9-756D-4DA4-A935-0F34C6F410F4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{892B626D-C106-4B35-B3AC-7A74D482AA59}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1372E4E2-D397-4A90-9A82-7BE4A0E1B235}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C1CA39E9-FA89-4FBA-9DD0-4F8CACC2BE27}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{09749977-4574-4508-8823-A09C57611CA0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{787C4D37-2D46-486E-8C09-B1B1153D8B01}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{709DAC96-7490-4A72-BC4B-C23A609F1BC0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{88BAAAA0-5034-4849-B830-4CE637BF7017}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{248AEC00-E532-4449-B81F-9A05CF75E8D7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4B05B430-BC87-4ED7-B25C-BB971968F03B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{87839AA6-AD49-4E83-AC34-0B3DAD715019}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2739,7 +2739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9387E694-6067-463B-88C8-D34CF5CEF8D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAADEE5-29F0-4FD3-92EF-ADAC64D8D4B7}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4056,17 +4056,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0A81A331-5CF9-4BB1-8913-78F052533727}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5444A958-7ACB-4E1C-866E-DBE3735EABD0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{28892922-C0DA-45ED-83A5-4AA8A7F3B457}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{78813400-28D0-4918-94DF-06D974ADD08C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3241A99C-0917-4845-B39B-76E6BC4909EB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{57E24FAA-EFE6-4C9B-9A70-155A5A515603}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6D56F65F-BD4F-4ED9-AB76-2F3C1A7AE571}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A1F568FC-B1DB-4BC6-9DA0-3F084BB5A49A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C5227678-86A6-4CE9-9171-4A79380495EB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C9F49DDF-9658-4525-B1EB-03F7CA3C3747}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F93730DF-034D-4E49-B3C5-9C060BE34F10}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EFE9B134-B955-424C-A94F-A683843F8F61}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F945671B-704A-4686-BFA6-A95866797467}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1DC1715F-C141-4F31-B7EE-034A069522CC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DF1D9C73-BF68-4DA0-9A10-ED5339A78A2C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{123F4937-6E04-4E18-9007-5D862D78588C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{138DB717-C9C0-4B4D-950C-9EF6D409C9E2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0532D4CA-C6DD-43B5-A8FC-310623EFECF1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{44D1E1AD-B310-4000-91B3-A99142DC96A5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FFB6D7D9-E3FA-4953-8F6F-E436DA2E4313}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C54C2598-7947-4D59-95F2-E76868B5BF1B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C8669015-FE76-4075-9010-2DED534A7FF9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4079,7 +4079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3022F477-0C68-49C5-998C-C7B5B8629E1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF961A33-90AA-43B6-AC97-74DFAD0B1638}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5390,17 +5390,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F1DE89EE-D7BE-4C2A-9E3D-F67D059011C5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FB3C5B3B-BCB6-4570-ABB4-2657E2D5CB4C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{804CC608-3CF0-41C8-86F3-8F814B440494}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BB6A2D0A-9BF3-4A55-BF4D-643BA4EA5E60}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{22B17778-EC2D-470D-AFDA-3E98AA7BADE0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F8DC0B39-0D7D-4911-AA38-3DB7DBAD16BC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CFD84C35-DBA1-4D63-8319-8F46B92EC95F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C4E0E059-D922-4062-9660-4B27CFCA0679}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{82FA978A-AB84-41D4-8686-0385D29A35E8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D7AEC878-56B4-4D32-93C9-FFE970CDB32E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{44D1AE19-CFB7-4C03-BA08-E1F3D2754CA4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B5EB56F9-FF2D-463C-BCFB-EA551C06B48C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8DC67FF7-0ECD-4C25-81CB-80CA17CE1F61}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C51990C1-68ED-4259-8E87-9BB4E78BEEC3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1509D2E3-F2F6-4D0D-A72C-DA6AEEAAAFA0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B32C0B84-842A-4CC6-89E6-2CE87B853419}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F7B7A265-2792-4EF8-AF34-C62A7600F061}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{524C6FB5-5AE8-4A28-BDBB-8AB5C8F4A2FA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6F8617C8-2535-4A85-AAB8-3C8A4963E0DE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1AF665B5-891C-4B0D-A105-D5F41DD596BA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4777412C-1BED-4D89-9504-23A55DA15091}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D352AFAD-F800-4409-94B1-380A0875663B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5413,7 +5413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB50E2E6-AA4E-42E9-A49C-B2D237FC8B63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571FE931-5914-4895-BFC5-8A9F0A794A9D}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6714,17 +6714,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CE821B8C-13C1-406A-8873-A05268192870}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EF52CF41-5207-4796-8E59-266071E1141C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1B94E08B-D034-4757-ADC6-2D1B4AA76B25}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CF3EE4A1-683E-4D1A-A2AD-538BE8EBE05F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AB5F1A14-60DA-4E81-820C-E5A73157E214}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8651338D-7B7B-46D5-B05E-92904C6B38A6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C1BED857-FCE8-4D77-820E-6671F1532604}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{53DBB101-5724-4489-9FAC-FA5534135BAD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{40072C5F-9307-4A48-94E3-4A373CE99ADE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CFB6EB69-692D-495C-8384-DC8EEAA2C2DC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F6990095-0F51-450F-BCC2-480370C842B9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{12CDE2AC-8FEE-4DF7-8E43-F56307ADAD9A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1AEFDE46-1F2F-419A-AE93-46F3E88E514F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F930E6E0-9E36-4F52-9DF1-B4125624E098}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0360A301-3BD2-4788-9867-4F08C27C6D70}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DD022843-3D28-4AB3-9862-9BFC8A83D1B5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{500DDF79-3EEF-4304-AE8A-425B0D881FD3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9D1A825E-5D90-4EBA-BB3A-A6EA05900091}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A3006738-B0E2-4B63-844E-1D43AB674BA1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{682F6D2B-7FC8-4758-86A3-0BCB225EE2C8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3EEAC928-A774-4364-B0A8-F8C88BFFC4C4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{018A1F5F-7B4F-4265-806D-228B7F9EA9FF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6737,7 +6737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C76680-27F1-4912-8E29-5DFD070E4FFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A46372-6FAA-4370-9776-242B680693CE}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8054,17 +8054,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{20CCE6FB-A377-4310-9FC2-CAF3CA75B093}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{46E31D94-511C-41F6-86D2-A5380654E712}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7629E8B8-21D7-4481-93F9-7D119795B57A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A69F1947-0150-430F-A426-C577C6BFFED6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8336EBDD-3F82-4FE6-BE4F-09BB53BE5BD8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F292D10C-D2BC-438A-A707-705F057792CE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D5AA5F55-8CE9-45B9-BE87-DF94E0E5F7EB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8801A279-2A63-4E6B-AE9B-6334BC3662CA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8F2F1007-E968-4F5D-9610-7F5592B66B29}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C4D137CB-6CD5-4255-B2FD-474E3E0C7ABA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{47ACF148-CF71-486F-A2E3-28B1F16C4CB0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{68037935-3B78-46E8-8A37-C51A3AA18C8C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D3F296E-9000-4277-A2B4-E202E94D18ED}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FCD1F4AA-4D14-4D59-9905-6BEFD85D5EFF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FFCAD74E-410B-4156-BE63-A0F43C3F03EC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{51CFCD14-8068-40FA-BDB3-97792F50C0A6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E1E7BE08-8B78-4B22-8EB0-60850FF40A0E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{778580ED-8032-4CA1-A618-B1B5F16E68CE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E425B1EF-BADD-40D8-B28A-76F7DF0E4A2B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B6C98345-F2F3-400C-82DD-9984F781064F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BC9D640C-84B8-43BC-8E91-CCFE6D6A88EC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A84995A9-A391-4407-8899-C77BAECB1C4B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8077,7 +8077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAF77CC-1E89-41D2-AFC1-0C36C93DAF61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FAF3C0-EAFD-46C5-A661-6B6D759A3941}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9394,17 +9394,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CADC97FF-AE5B-4019-9120-5C1698981AB9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E98A0F66-0E01-4CE9-89D7-7D74A7B6C505}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4F238A77-A700-4D0E-B71C-2D35A997AFB2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{695B819C-76AA-45AE-8385-713927149174}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4ADD909C-171E-4345-8F06-2CD764FE9C72}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3DF5C939-3A2C-47D8-AAEF-87072BF5A800}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{37430CC7-78F0-4A80-89A3-515996C2AB77}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{236E8905-3F8A-4E67-B427-39B8544E79A9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2D11C87D-44A3-433C-830B-EA5C8CC529E4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{64DA7D94-0250-4F7C-BB74-28C3AA722C89}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{29D2577A-35E6-4DB4-BF3A-226943CAB614}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{804E625A-88BA-4DDD-BA78-4C8F9F3E06B5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4B289F5D-7C22-40D6-B8D4-8D7C96C39740}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0F265F91-41CB-409B-9732-778B8D762F55}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1817336A-E061-43D3-A783-C008C25A8390}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A8EC36DF-9822-4DB1-B1AF-15A8ADBF1C95}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{77A3C7E0-0496-434D-80F3-F8D8985E6FEE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{497CB134-1761-4F8C-AC7A-496ED3BEC63A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1F0DA272-8923-4677-92EC-B01A867F5566}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B74B48A2-E723-463A-8534-7B3244BA2E0D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1480F145-5841-459A-8DE2-53B8FC9BE8B7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F0CBCD4F-4C3E-4422-ACE2-28A7D3CE00B9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9417,7 +9417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F7B9A7-34CC-4AB0-9699-CF4D9A80D1A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574A51FB-BF48-44B1-851A-5032A1E84841}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10734,17 +10734,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AD7208C1-C08F-4938-B215-EA9EEFF26440}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2E49F869-A8E8-4ED8-AEA5-2A6007A4477C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7159828F-443F-4695-8A4C-2A7946226FED}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3085BA0F-2672-4244-BEA2-D861761AF612}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{10CAC906-8262-4899-9659-0C2107DF08E2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9405694F-CA26-457A-B0F2-86E212DB363F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F88A5E1F-631F-46F2-96D6-EC333AD73C78}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{50483A23-6F6E-49E3-B470-AC735291A524}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5A197FCE-DC97-4E35-96D9-DB8D884D6B68}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C1CE204E-B343-41AD-B7F1-DE813DFD4B58}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4B2F3CB5-64BA-4358-BA04-365489F03804}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8A0306EA-F415-43FD-9F66-08F33B78F92A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C2899B57-CD52-432E-B5E9-C4C002E2D1E3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7257F77F-772D-457A-A108-03A929F0AD54}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{32A2E6B1-8C6B-4645-A2D4-4EF6AAEBB1BE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{991EB97D-1CC6-4AF2-BB5D-9F9997EEECB2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{44CD5E20-CEA5-43E7-863F-3B745BE42541}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C03D313E-8A4D-441F-B9F6-3A712379D0C1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{75DE9C68-C2DE-41A4-BF2F-E6684B416B24}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EE453DE9-F16A-4819-A445-977F1B8CF002}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{550DE422-A72F-427E-8E21-02D261B0EE83}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E2EDD859-DF56-4BE7-8458-2DC89F5B2137}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10757,7 +10757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B415E7A-1B2F-4DAC-BC3D-96D85C2AFA06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5058D0C-3C6F-4F2D-BB37-58EE46F8F148}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12074,17 +12074,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{61881D5C-96CB-4122-9D57-6BF6ACF64F21}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27067C90-7203-40AC-AAD9-7331B6941115}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FF0F9222-85C5-4222-983C-EFFF0511383D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4152BA2C-EA81-467F-B0B3-BD380603F0E3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E04D8EEB-7A08-49D0-B7CA-2DF9ABD93638}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{257DD64B-0AD6-4F82-A801-442B200F8575}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{04B69DCF-6CFD-4081-A7F9-457EBB0EAB54}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ED117E32-953A-4F1C-AC43-3C169714E72C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D04508F1-2DAA-4550-96D5-CBEC0993C5CA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DA376C5B-AFDD-4742-8B1F-972B48E7E586}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B0E95D98-A87B-48A3-9F05-BA4FA5811495}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{386A593F-4734-4347-8E33-96F8A9C25E9E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A9E402F7-27AA-4D9F-9353-7B87A912EE6A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4B389755-6DBA-4220-8F4B-53138D12B210}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F93D692E-B778-4BAB-8629-0A2C4FBAF4CB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{77290896-620B-4043-9333-C13B58DC451E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{126FC421-9CFA-4B87-BDEE-EF841A7FDC8B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B35DC7B-E491-4D07-B3EF-399553E21D8C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BC7DF2F3-906B-4ADD-A298-789F9EAEDF2E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2C21FD74-E48F-4A0C-9D22-B16EB1FCFAD4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D5A3837F-8561-460F-A568-7BD8A916FE57}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EDEB13CF-B3D8-4A91-AF8A-246F4A828259}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12097,7 +12097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633A490D-CE0D-4B99-B959-D2B4944E4E1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4AC582D-176A-4A69-8A9B-31E562DC0CA3}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13414,17 +13414,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{63D10BEE-D2B0-4DA4-88AD-30513CADC5E1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{66ED0DD5-B697-4BBF-9DF0-CFFE0A3904E6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F135046F-68E9-49A2-96C6-46C6BFAF3EB1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2BB38103-CD0C-4DD4-92DE-0BA9AB9B7028}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{537D2C2A-C52D-4064-8B56-E6D12926312A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AA4B3F57-621B-43E0-856B-5421334A8D76}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EF0FFBC8-8ACF-4A04-8C66-F78D965F6FD8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D1D006AD-939B-4F3D-9AEC-A41194F2D17D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1FD68312-BAA9-4245-90BF-D7CD33D69696}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AC2D211A-0824-4AD3-881B-5A6090E1E3A8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7AB1E9AB-43C0-470F-B090-F75D082104C1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E9405D98-5C3F-49C7-998A-C87664542AB3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A3E32249-3C26-4D3F-9A34-77B152D0BC3B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6E86C050-FEC9-4433-BA56-C930CB86A59C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3064184A-2AFF-4E8C-875E-34302298D53E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{67750E7A-0B15-45A8-9E7C-29D4EABCAD76}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{390F57BB-689E-45F1-AF24-4F4019FC422C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E12A96D0-BE86-457F-A798-CEDF850570C6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2998F6A9-110C-4CB9-B0A9-7BF8192CDC35}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BEBC60E7-CD53-47D7-BFF2-F280DB1AAB1A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{96C71763-7B1E-401B-805C-AD5082ABFC4E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2636E1C8-D6C9-431D-B03E-F535066EC330}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13437,7 +13437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3395E972-CB8A-45FD-BF84-E90663CF11E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75282740-C05E-4A58-9871-6D9B783983ED}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14756,17 +14756,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2A06EF45-112B-4651-A4A1-9D86CC7B0203}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A3CBD65-9C59-4EC9-8B1A-CCBCC13C2489}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CFAB98EB-11CF-4BE5-A448-7D899E1801A5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E655042C-A5BE-48D8-8625-9F70331D61FE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{87B45AF9-E9FF-49DD-8CDC-43B8971B3B1B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{27AD1C69-951B-4CE2-8F82-74C643593A5F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FB237958-DBAD-4C58-A485-8792456180AE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2F25A8C4-91A8-49A4-AF8B-94F530B0DAF7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{98797469-196D-4357-8BCA-A84CDF81B119}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C8D14E85-75B0-4141-96B7-6CB9F5EDA649}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{39AB762E-C97E-4B67-B741-65898D912516}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2D90A3EE-6CC3-4F50-B518-0907E3908E2E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{46F64D3B-4987-40CE-99A1-E44664DDC00F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D0D7EDE8-0409-4627-844C-82D208F1408A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1863999E-64D1-4C0A-9D02-A973D7C1256E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DC8F4F41-3B04-4FF2-ACBC-59B4D4BA3F07}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E333BCC7-A50A-462E-B095-AFF1EC57A643}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CFCE6D0A-738B-4279-8F4B-BCF0E177F1D5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3973F974-C2A1-4F71-A450-52E975C2B3D6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9C2E0268-BF21-43B0-97EE-FD46888FE907}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CA8287CA-231C-4E16-AA0A-6D13D6775382}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7AC237E1-97FE-4774-A85F-90C66B989B51}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14779,7 +14779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2177FA5C-FC04-4665-B355-0011D758611A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603F5D1A-DFF8-4BCF-8118-DD8140BB9970}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16096,17 +16096,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CD15245B-6127-459E-91E3-4350D9FCF06E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B4FE76EE-E89C-44BB-A713-EE19D8CE22CD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9B72489B-DFF5-4045-9072-850484E7CF23}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{197E9B58-9507-43F5-90F3-20B1BA879A81}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BC528B52-8298-42BD-8802-7116766EED61}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2501C32A-0C60-4409-B424-AE10AAE289B1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{33791088-E906-48CD-9839-1FEB3DC38A49}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{950B1280-05DE-4FC1-8245-07BDC5B4835B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CDE01360-A0C6-487E-B570-E81BF388B83E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{15C54BE1-A26D-40F5-B8F1-A68585F4D1BA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{439B4DA9-E751-412E-8422-66C49D592AE9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CFE8E4AB-800A-4E5C-8ED1-8F082ED19987}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E5C0FEC3-2AAF-4DC1-A9E4-6334B80214D1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{41B3912F-FADC-4BB8-93B2-2BECFCFAC240}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{779C8E16-4602-45EA-B4A6-41F5969F2133}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8C9E32B2-8FED-4CEC-81EE-B2E382F820ED}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9229FE15-14CC-4537-A3FC-3D781F882C07}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F5302666-EB71-4FF4-927D-858922B4D793}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1E49743F-6BE6-4C8C-A673-7BC55C3F3B06}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{14F8CB64-D2B0-4CE3-A286-0DA73A213101}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3795DEB0-B37F-4F96-B67A-A307FFF19FC5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{10EFC9A2-09F5-4340-8F8D-B35762837DC3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -16119,7 +16119,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B561AA07-BAA3-4861-899D-CC7548521F8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E315688D-C897-4C58-9AC1-0D6B58E8912F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17436,17 +17436,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4B107A50-D8BE-42B0-BC53-DE6F0234CA47}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B698F408-AE03-41D6-ACD0-0C69DA6D62AE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EC9B8FFF-BB52-4E14-855D-32F92F2CC3D4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E84C6018-F1B3-4851-B2BB-20F925825F98}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E27D5AD8-8B58-41E3-B884-385E61941EB4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ABE2350D-30FB-4D87-A4C0-868DAE976050}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1F68B6C7-5948-4A1C-8BEA-42F74461F308}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8CDE653A-50D2-49DE-96B5-39445198B8B4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9068E2E9-3126-402C-A9A1-D182D84F5AF4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E5ECE648-34B0-488E-8763-8FD7D0DFAAD3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F1947359-469C-4FD5-BEFE-C2A5288F34D5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{14CF297F-74A8-47C2-A010-59EA91F2C74B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2EA8945A-1527-4C96-AE4F-E496DFBD628A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5088811F-0A09-4C90-9694-A60365B79FA7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0BE74582-B46F-48AA-ACE0-DA7383D935C7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D504FA75-3E24-4834-8081-4774C0BB5A8E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{04A7A94C-D6F2-4B53-9960-8EDA5B7F359E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EDB7309F-9835-4E68-9209-51A9B4E08282}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FF7E2A0C-AB19-47C2-983A-97CA8EBEF9E6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{09118AB4-15A1-4D39-9510-3988C14A3CEA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5B54B678-B21F-46E1-A715-0B3D3A567101}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3C78F7C3-9C56-4A54-AE74-E8BE615BFB6B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
